--- a/CCi/excel/New Microsoft Excel Worksheet.xlsx
+++ b/CCi/excel/New Microsoft Excel Worksheet.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="zain" sheetId="4" r:id="rId1"/>
+    <sheet name="aug 2023" sheetId="1" r:id="rId2"/>
+    <sheet name="sep 2023" sheetId="2" r:id="rId3"/>
+    <sheet name="result card" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Daily Expense Report</t>
   </si>
@@ -35,13 +38,89 @@
   </si>
   <si>
     <t>salary ai</t>
+  </si>
+  <si>
+    <t>GES Millat colony</t>
+  </si>
+  <si>
+    <t>Roll no</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Reg No</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Faizan</t>
+  </si>
+  <si>
+    <t>12345-ges-12</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>Sr.no</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>obt marks</t>
+  </si>
+  <si>
+    <t>total marks</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Islamiat</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>zain</t>
+  </si>
+  <si>
+    <t>12345-ges-13</t>
+  </si>
+  <si>
+    <t>Dated: 
+08.08.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +143,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -73,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -81,19 +192,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,10 +647,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="19">
+        <v>124</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11">
+        <v>67</v>
+      </c>
+      <c r="D6" s="11">
+        <v>100</v>
+      </c>
+      <c r="E6" s="11">
+        <f>C6/D6 *100</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11">
+        <v>70</v>
+      </c>
+      <c r="D7" s="11">
+        <v>100</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" ref="E7:E13" si="0">C7/D7 *100</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11">
+        <v>65</v>
+      </c>
+      <c r="D8" s="11">
+        <v>100</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11">
+        <v>54</v>
+      </c>
+      <c r="D9" s="11">
+        <v>100</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11">
+        <v>89</v>
+      </c>
+      <c r="D10" s="11">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11">
+        <v>80</v>
+      </c>
+      <c r="D11" s="11">
+        <v>100</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11">
+        <v>98</v>
+      </c>
+      <c r="D12" s="11">
+        <v>100</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11">
+        <v>76</v>
+      </c>
+      <c r="D13" s="11">
+        <v>100</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="16">
+        <f>SUM(C6:C13)</f>
+        <v>599</v>
+      </c>
+      <c r="D14" s="16">
+        <f>SUM(D6:D13)</f>
+        <v>800</v>
+      </c>
+      <c r="E14" s="16">
+        <f>C14/D14*100</f>
+        <v>74.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,22 +928,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -438,19 +951,19 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K5">
@@ -497,4 +1010,279 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>123</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11">
+        <v>56</v>
+      </c>
+      <c r="D6" s="11">
+        <v>100</v>
+      </c>
+      <c r="E6" s="11">
+        <f>C6/D6 *100</f>
+        <v>56.000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11">
+        <v>78</v>
+      </c>
+      <c r="D7" s="11">
+        <v>100</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" ref="E7:E15" si="0">C7/D7 *100</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11">
+        <v>65</v>
+      </c>
+      <c r="D8" s="11">
+        <v>100</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43</v>
+      </c>
+      <c r="D9" s="11">
+        <v>100</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11">
+        <v>45</v>
+      </c>
+      <c r="D10" s="11">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11">
+        <v>68</v>
+      </c>
+      <c r="D11" s="11">
+        <v>100</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11">
+        <v>87</v>
+      </c>
+      <c r="D12" s="11">
+        <v>100</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11">
+        <v>59</v>
+      </c>
+      <c r="D13" s="11">
+        <v>100</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="16">
+        <f>SUM(C6:C13)</f>
+        <v>501</v>
+      </c>
+      <c r="D14" s="16">
+        <f>SUM(D6:D13)</f>
+        <v>800</v>
+      </c>
+      <c r="E14" s="14">
+        <f>C14/D14*100</f>
+        <v>62.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>